--- a/237-Alain-RM/Specs/Cinématique pattes ciseaux - annexe patrick.xlsx
+++ b/237-Alain-RM/Specs/Cinématique pattes ciseaux - annexe patrick.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Carre92-2020\237-Alain-RM\Specs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297CE0CA-5F70-47D2-A270-2E21D109F3E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA4836C-B3F9-4F5D-A1BF-0E0217A2028D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -140,7 +140,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,6 +165,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -178,13 +184,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -334,79 +341,79 @@
                   <c:v>-3.0000000000000013E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>-3.2000000000000015E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>-3.0000000000000013E-2</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>-2.8000000000000011E-2</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.8000000000000009E-2</c:v>
+                  <c:v>-2.0000000000000011E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.9999999999999948E-3</c:v>
+                  <c:v>-4.0000000000000105E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.1999999999999999E-2</c:v>
+                  <c:v>1.199999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.2000000000000001E-2</c:v>
+                  <c:v>2.1999999999999992E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.4000000000000002E-2</c:v>
+                  <c:v>3.1999999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.4000000000000002E-2</c:v>
+                  <c:v>3.3999999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.2000000000000001E-2</c:v>
+                  <c:v>3.1999999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.03</c:v>
+                  <c:v>2.9999999999999992E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.7999999999999997E-2</c:v>
+                  <c:v>2.799999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.5999999999999995E-2</c:v>
+                  <c:v>2.5999999999999988E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.3999999999999994E-2</c:v>
+                  <c:v>2.3999999999999987E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.1999999999999992E-2</c:v>
+                  <c:v>2.1999999999999985E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.999999999999999E-2</c:v>
+                  <c:v>1.9999999999999983E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.7999999999999988E-2</c:v>
+                  <c:v>1.7999999999999981E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.5999999999999986E-2</c:v>
+                  <c:v>1.599999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.3999999999999986E-2</c:v>
+                  <c:v>1.3999999999999979E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.1999999999999986E-2</c:v>
+                  <c:v>1.1999999999999979E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9.9999999999999863E-3</c:v>
+                  <c:v>9.9999999999999794E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>7.9999999999999863E-3</c:v>
+                  <c:v>7.9999999999999793E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.9999999999999862E-3</c:v>
+                  <c:v>5.9999999999999793E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.9999999999999862E-3</c:v>
+                  <c:v>3.9999999999999793E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.9999999999999862E-3</c:v>
+                  <c:v>1.9999999999999792E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-1.3877787807814457E-17</c:v>
+                  <c:v>-2.0816681711721685E-17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -418,127 +425,127 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="120"/>
                 <c:pt idx="0">
-                  <c:v>-8.2000000000000003E-2</c:v>
+                  <c:v>-8.7999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-8.2000000000000003E-2</c:v>
+                  <c:v>-8.7999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-8.2000000000000003E-2</c:v>
+                  <c:v>-8.7999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-8.2000000000000003E-2</c:v>
+                  <c:v>-8.7999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8.2000000000000003E-2</c:v>
+                  <c:v>-8.7999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-8.2000000000000003E-2</c:v>
+                  <c:v>-8.7999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-8.2000000000000003E-2</c:v>
+                  <c:v>-8.7999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-8.2000000000000003E-2</c:v>
+                  <c:v>-8.7999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-8.2000000000000003E-2</c:v>
+                  <c:v>-8.7999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-8.2000000000000003E-2</c:v>
+                  <c:v>-8.7999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-8.2000000000000003E-2</c:v>
+                  <c:v>-8.7999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-8.2000000000000003E-2</c:v>
+                  <c:v>-8.7999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-8.2000000000000003E-2</c:v>
+                  <c:v>-8.7999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-8.2000000000000003E-2</c:v>
+                  <c:v>-8.7999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-8.2000000000000003E-2</c:v>
+                  <c:v>-8.7999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.08</c:v>
+                  <c:v>-8.7999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-7.0000000000000007E-2</c:v>
+                  <c:v>-8.5999999999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-7.0000000000000007E-2</c:v>
+                  <c:v>-7.5999999999999984E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-7.0000000000000007E-2</c:v>
+                  <c:v>-7.5999999999999984E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-7.0000000000000007E-2</c:v>
+                  <c:v>-7.5999999999999984E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-7.0000000000000007E-2</c:v>
+                  <c:v>-7.5999999999999984E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-7.0000000000000007E-2</c:v>
+                  <c:v>-7.5999999999999984E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-7.0000000000000007E-2</c:v>
+                  <c:v>-7.5999999999999984E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-8.0000000000000016E-2</c:v>
+                  <c:v>-8.5999999999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-8.2000000000000017E-2</c:v>
+                  <c:v>-8.7999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-8.2000000000000017E-2</c:v>
+                  <c:v>-8.7999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-8.2000000000000017E-2</c:v>
+                  <c:v>-8.7999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-8.2000000000000017E-2</c:v>
+                  <c:v>-8.7999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-8.2000000000000017E-2</c:v>
+                  <c:v>-8.7999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-8.2000000000000017E-2</c:v>
+                  <c:v>-8.7999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-8.2000000000000017E-2</c:v>
+                  <c:v>-8.7999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-8.2000000000000017E-2</c:v>
+                  <c:v>-8.7999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-8.2000000000000017E-2</c:v>
+                  <c:v>-8.7999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-8.2000000000000017E-2</c:v>
+                  <c:v>-8.7999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-8.2000000000000017E-2</c:v>
+                  <c:v>-8.7999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-8.2000000000000017E-2</c:v>
+                  <c:v>-8.7999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-8.2000000000000017E-2</c:v>
+                  <c:v>-8.7999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-8.2000000000000017E-2</c:v>
+                  <c:v>-8.7999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-8.2000000000000017E-2</c:v>
+                  <c:v>-8.7999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-8.2000000000000017E-2</c:v>
+                  <c:v>-8.7999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-8.2000000000000017E-2</c:v>
+                  <c:v>-8.7999999999999995E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -823,121 +830,121 @@
                   <c:v>-1.5707963267948966</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.595181735967615</c:v>
+                  <c:v>-1.5935196876365376</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.6195381781048281</c:v>
+                  <c:v>-1.6162196062164735</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.643836892098016</c:v>
+                  <c:v>-1.6388727850528961</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.6680495250464624</c:v>
+                  <c:v>-1.6614562139956417</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.6921483273656603</c:v>
+                  <c:v>-1.6839473083853811</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.7161063374305987</c:v>
+                  <c:v>-1.7063240407803972</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.7398975527962737</c:v>
+                  <c:v>-1.7285650643908506</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.7634970854572822</c:v>
+                  <c:v>-1.7506498265873749</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.7868812990916829</c:v>
+                  <c:v>-1.7725586711151837</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.8100279267585573</c:v>
+                  <c:v>-1.7942729279355296</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.8329161680603694</c:v>
+                  <c:v>-1.8157749899217608</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.8555267653176089</c:v>
+                  <c:v>-1.837048375945822</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.8778420588136875</c:v>
+                  <c:v>-1.8580777801920307</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.899846021635236</c:v>
+                  <c:v>-1.8788491078186731</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.929566997065469</c:v>
+                  <c:v>-1.8993494973463476</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.9756881130799802</c:v>
+                  <c:v>-1.9270159821910471</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1.9513027039072615</c:v>
+                  <c:v>-1.9467572806662023</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.8224862985530834</c:v>
+                  <c:v>-1.8281200417659855</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1.5422326689561365</c:v>
+                  <c:v>-1.6233793884058385</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1.2662854435927842</c:v>
+                  <c:v>-1.4141944498128813</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-1.1420182993488801</c:v>
+                  <c:v>-1.2890244595215443</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-1.1186424645091209</c:v>
+                  <c:v>-1.1722738811284763</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-1.16892567935444</c:v>
+                  <c:v>-1.1943059923483736</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-1.1987285679367763</c:v>
+                  <c:v>-1.2220253232109897</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-1.220068378546693</c:v>
+                  <c:v>-1.2422431562434455</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-1.2417466319545571</c:v>
+                  <c:v>-1.2627435457711202</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-1.2637505947761059</c:v>
+                  <c:v>-1.2835148733977624</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-1.2860658882721845</c:v>
+                  <c:v>-1.3045442776439713</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-1.3086764855294239</c:v>
+                  <c:v>-1.3258176636680326</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-1.3315647268312361</c:v>
+                  <c:v>-1.3473197256542637</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1.3547113544981104</c:v>
+                  <c:v>-1.3690339824746096</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1.3780955681325111</c:v>
+                  <c:v>-1.3909428270024184</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-1.4016951007935197</c:v>
+                  <c:v>-1.4130275891989428</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-1.4254863161591946</c:v>
+                  <c:v>-1.4352686128093961</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1.449444326224133</c:v>
+                  <c:v>-1.4576453452044122</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-1.4735431285433309</c:v>
+                  <c:v>-1.4801364395941516</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-1.4977557614917774</c:v>
+                  <c:v>-1.5027198685368972</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-1.5220544754849652</c:v>
+                  <c:v>-1.5253730473733198</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-1.5464109176221781</c:v>
+                  <c:v>-1.5480729659532557</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>-1.5707963267948968</c:v>
@@ -1205,127 +1212,127 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>8.2000000000000003E-2</c:v>
+                  <c:v>8.7999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.2024386617639514E-2</c:v>
+                  <c:v>8.802272433866154E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.2097503007095174E-2</c:v>
+                  <c:v>8.8090862182180957E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.2219219164377869E-2</c:v>
+                  <c:v>8.8204308284799776E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.2389319696183932E-2</c:v>
+                  <c:v>8.8362888137498083E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.2607505712253546E-2</c:v>
+                  <c:v>8.8566359301938111E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.2873397420402645E-2</c:v>
+                  <c:v>8.8814413244698062E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.318653737234169E-2</c:v>
+                  <c:v>8.9106677639781848E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.3546394296821702E-2</c:v>
+                  <c:v>8.9442719099991574E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.3952367447261422E-2</c:v>
+                  <c:v>8.9822046291542473E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.440379138403678E-2</c:v>
+                  <c:v>9.0244113381427807E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.4899941107164506E-2</c:v>
+                  <c:v>9.0708323763588533E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.5440037453175313E-2</c:v>
+                  <c:v>9.121403400793103E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.6023252670426278E-2</c:v>
+                  <c:v>9.1760557975635704E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.6648716089737884E-2</c:v>
+                  <c:v>9.2347171044921558E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.5440037453175313E-2</c:v>
+                  <c:v>9.2973114393355677E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.6157731058639086E-2</c:v>
+                  <c:v>9.1760557975635704E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.5392307299883068E-2</c:v>
+                  <c:v>8.1706792863261976E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.2277243998370613E-2</c:v>
+                  <c:v>7.8587530817553986E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.0028565600046389E-2</c:v>
+                  <c:v>7.6105190361761776E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.337574531137657E-2</c:v>
+                  <c:v>7.6941536246685358E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.6967525619575428E-2</c:v>
+                  <c:v>7.9120161779409906E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.7820305833374875E-2</c:v>
+                  <c:v>8.2462112512353192E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.6925255248402944E-2</c:v>
+                  <c:v>9.2477024173575131E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.8022724338661554E-2</c:v>
+                  <c:v>9.3637599285756989E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.731551981177231E-2</c:v>
+                  <c:v>9.2973114393355663E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.6648716089737898E-2</c:v>
+                  <c:v>9.2347171044921558E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.6023252670426278E-2</c:v>
+                  <c:v>9.176055797563569E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.5440037453175327E-2</c:v>
+                  <c:v>9.121403400793103E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.4899941107164506E-2</c:v>
+                  <c:v>9.0708323763588533E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.440379138403678E-2</c:v>
+                  <c:v>9.0244113381427807E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.3952367447261436E-2</c:v>
+                  <c:v>8.9822046291542473E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.3546394296821702E-2</c:v>
+                  <c:v>8.9442719099991574E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.3186537372341704E-2</c:v>
+                  <c:v>8.9106677639781848E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.2873397420402659E-2</c:v>
+                  <c:v>8.8814413244698062E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8.2607505712253546E-2</c:v>
+                  <c:v>8.8566359301938111E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8.2389319696183932E-2</c:v>
+                  <c:v>8.8362888137498083E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8.2219219164377869E-2</c:v>
+                  <c:v>8.8204308284799776E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8.2097503007095174E-2</c:v>
+                  <c:v>8.8090862182180957E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8.2024386617639528E-2</c:v>
+                  <c:v>8.802272433866154E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>8.2000000000000017E-2</c:v>
+                  <c:v>8.7999999999999995E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1579,127 +1586,127 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>14.802491795505883</c:v>
+                  <c:v>5.3466814362996153</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.364688080443424</c:v>
+                  <c:v>4.010657127314138</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.84749673731495</c:v>
+                  <c:v>2.6079514797963355</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.253155451650068</c:v>
+                  <c:v>1.1402535509506695</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.5842573093500114</c:v>
+                  <c:v>-0.39053506956346823</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.8437186670800241</c:v>
+                  <c:v>-1.9823186437627369</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0347405120035118</c:v>
+                  <c:v>-3.6328290063019577</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1607646342502487</c:v>
+                  <c:v>-5.3396500681531434</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2254260905122558</c:v>
+                  <c:v>-7.100244479657583</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.76749650063584585</c:v>
+                  <c:v>-8.9119817911917174</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.8141313184843493</c:v>
+                  <c:v>-10.772167442520139</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-4.9105629480434887</c:v>
+                  <c:v>-12.678071934253213</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-7.052879997982811</c:v>
+                  <c:v>-14.626959583133562</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-9.2372197031411698</c:v>
+                  <c:v>-16.61611633228982</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-11.459808722538634</c:v>
+                  <c:v>-18.642876172504351</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-11.295072791305723</c:v>
+                  <c:v>-20.704645825153889</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.0626332427413741</c:v>
+                  <c:v>-20.565984354053793</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9622421690491851</c:v>
+                  <c:v>-6.2484062226615622</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18.896437095890406</c:v>
+                  <c:v>5.9730271088070763</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>40.247682139111468</c:v>
+                  <c:v>22.350389683335859</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>48.364050614131678</c:v>
+                  <c:v>32.732431240442345</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>48.277800813075856</c:v>
+                  <c:v>35.90509151043306</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>48.024080811489497</c:v>
+                  <c:v>36.869897645844063</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>29.996589259775511</c:v>
+                  <c:v>20.394045678253267</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>26.630522075354531</c:v>
+                  <c:v>17.167285607515897</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26.47346279777064</c:v>
+                  <c:v>16.944774211326294</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26.24650880629957</c:v>
+                  <c:v>16.657372267355896</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>25.947629421222029</c:v>
+                  <c:v>16.303913291790263</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>25.574824854538267</c:v>
+                  <c:v>15.883277822981995</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>25.126158314257836</c:v>
+                  <c:v>15.394415001599743</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>24.599790689675274</c:v>
+                  <c:v>14.836364688053356</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>23.994017356978475</c:v>
+                  <c:v>14.20827979724381</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>23.307306451159718</c:v>
+                  <c:v>13.509448457874477</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>22.538337754983836</c:v>
+                  <c:v>12.739315538557088</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>21.686041172857148</c:v>
+                  <c:v>11.897503030548691</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>20.749633603427856</c:v>
+                  <c:v>10.983828742031729</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>19.7286529172776</c:v>
+                  <c:v>9.998322745906135</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>18.622987701886899</c:v>
+                  <c:v>8.9412410357144498</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>17.432901468741502</c:v>
+                  <c:v>7.8130758847959312</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>16.159050135036146</c:v>
+                  <c:v>6.6145624724718752</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>14.802491795505844</c:v>
+                  <c:v>5.346681436299602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1733,127 +1740,127 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>-14.802491795505887</c:v>
+                  <c:v>-5.3466814362996047</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-16.159050135036182</c:v>
+                  <c:v>-6.6145624724718743</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-17.432901468741534</c:v>
+                  <c:v>-7.8130758847959498</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-18.622987701886899</c:v>
+                  <c:v>-8.9412410357144552</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-19.728652917277628</c:v>
+                  <c:v>-9.9983227459061368</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-20.749633603427867</c:v>
+                  <c:v>-10.983828742031761</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-21.686041172857188</c:v>
+                  <c:v>-11.897503030548677</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-22.538337754983871</c:v>
+                  <c:v>-12.739315538557094</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-23.307306451159747</c:v>
+                  <c:v>-13.509448457874498</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-23.994017356978503</c:v>
+                  <c:v>-14.208279797243819</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-24.599790689675274</c:v>
+                  <c:v>-14.836364688053379</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-25.126158314257822</c:v>
+                  <c:v>-15.394415001599782</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-25.574824854538321</c:v>
+                  <c:v>-15.883277822981995</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-25.947629421222075</c:v>
+                  <c:v>-16.303913291790224</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-26.246508806299602</c:v>
+                  <c:v>-16.657372267355925</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-29.817017647861263</c:v>
+                  <c:v>-16.944774211326234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-48.459814270037754</c:v>
+                  <c:v>-20.253781313554242</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-48.565061141752807</c:v>
+                  <c:v>-36.833545614415328</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-47.73798335091243</c:v>
+                  <c:v>-35.460152781748604</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-36.974528055878011</c:v>
+                  <c:v>-28.375964691702563</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-13.469673767567286</c:v>
+                  <c:v>-14.787178010649569</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.85654182812677959</c:v>
+                  <c:v>-3.6164139498661143</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.7889351875392947</c:v>
+                  <c:v>8.797410709991027</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>16.054394757280591</c:v>
+                  <c:v>22.748568704255916</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>16.005302475568584</c:v>
+                  <c:v>22.79892743628406</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>13.716999586039009</c:v>
+                  <c:v>20.704645825153847</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>11.459808722538639</c:v>
+                  <c:v>18.642876172504344</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.2372197031411645</c:v>
+                  <c:v>16.616116332289806</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.0528799979828136</c:v>
+                  <c:v>14.626959583133555</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.9105629480435198</c:v>
+                  <c:v>12.678071934253182</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.8141313184843568</c:v>
+                  <c:v>10.772167442520129</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.76749650063587183</c:v>
+                  <c:v>8.911981791191721</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1.2254260905122862</c:v>
+                  <c:v>7.1002444796575901</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-3.1607646342502846</c:v>
+                  <c:v>5.3396500681531336</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-5.0347405120035091</c:v>
+                  <c:v>3.6328290063019324</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-6.8437186670800543</c:v>
+                  <c:v>1.9823186437627385</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-8.5842573093500221</c:v>
+                  <c:v>0.39053506956344108</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-10.253155451650088</c:v>
+                  <c:v>-1.1402535509506606</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-11.84749673731497</c:v>
+                  <c:v>-2.6079514797963554</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-13.364688080443386</c:v>
+                  <c:v>-4.0106571273141469</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-14.802491795505887</c:v>
+                  <c:v>-5.3466814362996615</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2141,124 +2148,124 @@
                   <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.378037150624596</c:v>
+                  <c:v>13.360243089854773</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.171913431284736</c:v>
+                  <c:v>14.027056475178025</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.94341285664882</c:v>
+                  <c:v>14.676979288456661</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.688981423000566</c:v>
+                  <c:v>15.307886205141376</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.405386422699873</c:v>
+                  <c:v>15.917835741992688</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.089781550765125</c:v>
+                  <c:v>16.505103625392209</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.739758777532632</c:v>
+                  <c:v>17.068210618511856</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.353385437379927</c:v>
+                  <c:v>17.605944115044394</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.929225911481016</c:v>
+                  <c:v>18.117373115341344</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20.466348178485035</c:v>
+                  <c:v>18.601856513284218</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20.964316295591395</c:v>
+                  <c:v>19.059044917330734</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21.423170499393223</c:v>
+                  <c:v>19.488876488803495</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21.843397051583587</c:v>
+                  <c:v>19.891567491562583</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>22.225890193974642</c:v>
+                  <c:v>20.26759840214531</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.6473593123291153</c:v>
+                  <c:v>20.617696526495379</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>133.57706034047095</c:v>
+                  <c:v>1.3866147110009663</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>28.996089263078112</c:v>
+                  <c:v>143.1757813139223</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>139.34194926841221</c:v>
+                  <c:v>122.21433331468639</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>213.51245043221064</c:v>
+                  <c:v>163.7736257452878</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>81.163684750202094</c:v>
+                  <c:v>103.82041557106487</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.86249801055821251</c:v>
+                  <c:v>31.726602699907147</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.5372000158635899</c:v>
+                  <c:v>9.6480613541100269</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>180.27491551713985</c:v>
+                  <c:v>164.75851967590796</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>33.660671844209809</c:v>
+                  <c:v>32.267600707373703</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.5705927758389038</c:v>
+                  <c:v>2.2251139618960281</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.2695399147107054</c:v>
+                  <c:v>2.8740194397039787</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.9887938507754086</c:v>
+                  <c:v>3.5345897556563344</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.7280456668376161</c:v>
+                  <c:v>4.2063546880826763</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.4866654028043129</c:v>
+                  <c:v>4.8886282138225212</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.2636762458256214</c:v>
+                  <c:v>5.5805031354638679</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.0577333269679912</c:v>
+                  <c:v>6.2808489080954644</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.867109058187566</c:v>
+                  <c:v>6.9883133936933284</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.6896869617588237</c:v>
+                  <c:v>7.701329193173887</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.5229658212668724</c:v>
+                  <c:v>8.4181250800839713</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9.3640756942929215</c:v>
+                  <c:v>9.1367428851696175</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>10.209806861502564</c:v>
+                  <c:v>9.8550599612559431</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>11.05665215390701</c:v>
+                  <c:v>10.570817101916852</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>11.900862331453972</c:v>
+                  <c:v>11.281651509185187</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>12.738513337053554</c:v>
+                  <c:v>11.985134123240559</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>13.565583395303022</c:v>
+                  <c:v>12.678810361722732</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2295,124 +2302,124 @@
                   <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.565583395302951</c:v>
+                  <c:v>12.678810361722697</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.738513337053519</c:v>
+                  <c:v>11.985134123240755</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.900862331453652</c:v>
+                  <c:v>11.281651509185053</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.056652153907294</c:v>
+                  <c:v>10.570817101916816</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.209806861502386</c:v>
+                  <c:v>9.8550599612562451</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.3640756942932057</c:v>
+                  <c:v>9.1367428851691557</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.5229658212668369</c:v>
+                  <c:v>8.4181250800841667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.6896869617587527</c:v>
+                  <c:v>7.7013291931740468</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.867109058187566</c:v>
+                  <c:v>6.988313393693204</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.0577333269677069</c:v>
+                  <c:v>6.2808489080956065</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.2636762458254793</c:v>
+                  <c:v>5.5805031354640278</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.4866654028049879</c:v>
+                  <c:v>4.8886282138221304</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.728045666837545</c:v>
+                  <c:v>4.2063546880822855</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.9887938507752665</c:v>
+                  <c:v>3.5345897556570094</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>35.705088415616615</c:v>
+                  <c:v>2.8740194397030905</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>186.4279662217649</c:v>
+                  <c:v>33.090071022280085</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.052468717150532</c:v>
+                  <c:v>165.79764300861086</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.2707779084037725</c:v>
+                  <c:v>13.73392832666724</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>107.63455295034419</c:v>
+                  <c:v>70.84188090046041</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>235.04854288310725</c:v>
+                  <c:v>135.88786681052994</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>143.26215595694066</c:v>
+                  <c:v>111.70764060783455</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>29.323933594125151</c:v>
+                  <c:v>124.13824659857141</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>122.65459569741296</c:v>
+                  <c:v>139.51157994264889</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.49092281712006525</c:v>
+                  <c:v>0.50358732028144004</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>22.883028895295752</c:v>
+                  <c:v>20.942816111302136</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>22.571908635003695</c:v>
+                  <c:v>20.617696526495024</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>22.225890193974749</c:v>
+                  <c:v>20.267598402145381</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>21.843397051583509</c:v>
+                  <c:v>19.891567491562512</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>21.423170499392938</c:v>
+                  <c:v>19.488876488803726</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>20.96431629559163</c:v>
+                  <c:v>19.059044917330539</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>20.46634817848485</c:v>
+                  <c:v>18.601856513284076</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>19.929225911481581</c:v>
+                  <c:v>18.117373115341309</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>19.353385437379984</c:v>
+                  <c:v>17.605944115044565</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>18.739758777532245</c:v>
+                  <c:v>17.068210618512012</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>18.089781550765451</c:v>
+                  <c:v>16.505103625391939</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>17.405386422699678</c:v>
+                  <c:v>15.917835741992974</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>16.688981423000655</c:v>
+                  <c:v>15.307886205141017</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>15.94341285664882</c:v>
+                  <c:v>14.676979288456948</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>15.171913431284167</c:v>
+                  <c:v>14.027056475177915</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>14.378037150625005</c:v>
+                  <c:v>13.360243089855146</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5856,16 +5863,17 @@
   <dimension ref="A1:V136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="4815" topLeftCell="A13" activePane="bottomLeft"/>
-      <selection activeCell="R15" sqref="R15:R57"/>
-      <selection pane="bottomLeft" activeCell="S39" sqref="S39"/>
+      <pane ySplit="4815" topLeftCell="A10" activePane="bottomLeft"/>
+      <selection activeCell="E1" sqref="E1:F1048576"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41:T41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="9.140625" style="1"/>
+    <col min="3" max="4" width="9.140625" style="1"/>
+    <col min="5" max="6" width="9.140625" style="6"/>
     <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5898,7 +5906,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="1">
-        <v>-8.2000000000000003E-2</v>
+        <v>-8.7999999999999995E-2</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
@@ -5971,10 +5979,10 @@
       <c r="D15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -6022,40 +6030,40 @@
       <c r="D16" s="1">
         <v>0</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="6">
         <v>0</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="6">
         <f>B5</f>
-        <v>-8.2000000000000003E-2</v>
+        <v>-8.7999999999999995E-2</v>
       </c>
       <c r="G16">
-        <f>-ATAN(E16/F16)-PI()/2</f>
+        <f t="shared" ref="G16:G56" si="0">-ATAN(E16/F16)-PI()/2</f>
         <v>-1.5707963267948966</v>
       </c>
       <c r="H16">
         <f>SQRT(E16*E16+F16*F16)</f>
-        <v>8.2000000000000003E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="I16" s="1">
         <f>ACOS(($B$2*$B$2+H16*H16-$B$3*$B$3)/(2*H16*$B$2))</f>
-        <v>1.8291485461259214</v>
+        <v>1.6641135219135843</v>
       </c>
       <c r="J16" s="1">
         <f>G16+I16</f>
-        <v>0.25835221933102481</v>
+        <v>9.3317195118687746E-2</v>
       </c>
       <c r="K16" s="1">
         <f>G16-I16</f>
-        <v>-3.3999448729208179</v>
+        <v>-3.2349098487084809</v>
       </c>
       <c r="P16">
         <f>J16*180/PI()</f>
-        <v>14.802491795505883</v>
+        <v>5.3466814362996153</v>
       </c>
       <c r="Q16">
         <f>-(-K16*180/PI()-180)</f>
-        <v>-14.802491795505887</v>
+        <v>-5.3466814362996047</v>
       </c>
       <c r="S16" s="3">
         <f>60/0.16</f>
@@ -6078,55 +6086,55 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" ref="C17:C69" si="0">-$B$10</f>
+        <f t="shared" ref="C17:C56" si="1">-$B$10</f>
         <v>-0.02</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="6">
         <f>E16+C17*$B$13</f>
         <v>-2E-3</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="6">
         <f>F16+D17*$B$13</f>
-        <v>-8.2000000000000003E-2</v>
+        <v>-8.7999999999999995E-2</v>
       </c>
       <c r="G17">
-        <f t="shared" ref="G17:G56" si="1">-ATAN(E17/F17)-PI()/2</f>
-        <v>-1.595181735967615</v>
+        <f t="shared" si="0"/>
+        <v>-1.5935196876365376</v>
       </c>
       <c r="H17">
-        <f t="shared" ref="H17:H58" si="2">SQRT(E17*E17+F17*F17)</f>
-        <v>8.2024386617639514E-2</v>
+        <f t="shared" ref="H17:H56" si="2">SQRT(E17*E17+F17*F17)</f>
+        <v>8.802272433866154E-2</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" ref="I17:I56" si="3">ACOS(($B$2*$B$2+H17*H17-$B$3*$B$3)/(2*H17*$B$2))</f>
-        <v>1.8284395464733936</v>
+        <v>1.6635188596767467</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" ref="J17:J56" si="4">G17+I17</f>
-        <v>0.23325781050577854</v>
+        <v>6.9999172040209112E-2</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" ref="K17:K56" si="5">G17-I17</f>
-        <v>-3.4236212824410086</v>
+        <v>-3.2570385473132841</v>
       </c>
       <c r="P17">
         <f t="shared" ref="P17:P56" si="6">J17*180/PI()</f>
-        <v>13.364688080443424</v>
+        <v>4.010657127314138</v>
       </c>
       <c r="Q17">
         <f t="shared" ref="Q17:Q56" si="7">-(-K17*180/PI()-180)</f>
-        <v>-16.159050135036182</v>
+        <v>-6.6145624724718743</v>
       </c>
       <c r="S17">
         <f>ABS(P17-P16)*10</f>
-        <v>14.378037150624596</v>
+        <v>13.360243089854773</v>
       </c>
       <c r="T17">
         <f>ABS(Q17-Q16)*10</f>
-        <v>13.565583395302951</v>
+        <v>12.678810361722697</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -6134,59 +6142,59 @@
         <v>2</v>
       </c>
       <c r="B18" s="1">
-        <f t="shared" ref="B18:B81" si="8">B17+$B$13</f>
+        <f t="shared" ref="B18:B56" si="8">B17+$B$13</f>
         <v>0.2</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.02</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
       </c>
-      <c r="E18" s="1">
-        <f t="shared" ref="E18:E81" si="9">E17+C18*$B$13</f>
+      <c r="E18" s="6">
+        <f t="shared" ref="E18:E56" si="9">E17+C18*$B$13</f>
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="F18" s="1">
-        <f t="shared" ref="F18:F81" si="10">F17+D18*$B$13</f>
-        <v>-8.2000000000000003E-2</v>
+      <c r="F18" s="6">
+        <f t="shared" ref="F18:F56" si="10">F17+D18*$B$13</f>
+        <v>-8.7999999999999995E-2</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
-        <v>-1.6195381781048281</v>
+        <f t="shared" si="0"/>
+        <v>-1.6162196062164735</v>
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
-        <v>8.2097503007095174E-2</v>
+        <v>8.8090862182180957E-2</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" si="3"/>
-        <v>1.8263160042902598</v>
+        <v>1.661736946271178</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" si="4"/>
-        <v>0.20677782618543161</v>
+        <v>4.5517340054704425E-2</v>
       </c>
       <c r="K18" s="1">
         <f t="shared" si="5"/>
-        <v>-3.4458541823950881</v>
+        <v>-3.2779565524876517</v>
       </c>
       <c r="P18">
         <f t="shared" si="6"/>
-        <v>11.84749673731495</v>
+        <v>2.6079514797963355</v>
       </c>
       <c r="Q18">
         <f t="shared" si="7"/>
-        <v>-17.432901468741534</v>
+        <v>-7.8130758847959498</v>
       </c>
       <c r="S18">
         <f t="shared" ref="S18:S56" si="11">ABS(P18-P17)*10</f>
-        <v>15.171913431284736</v>
+        <v>14.027056475178025</v>
       </c>
       <c r="T18">
         <f t="shared" ref="T18:T20" si="12">ABS(Q18-Q17)*10</f>
-        <v>12.738513337053519</v>
+        <v>11.985134123240755</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -6198,55 +6206,55 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.02</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="6">
         <f t="shared" si="9"/>
         <v>-6.0000000000000001E-3</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="6">
         <f t="shared" si="10"/>
-        <v>-8.2000000000000003E-2</v>
+        <v>-8.7999999999999995E-2</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
-        <v>-1.643836892098016</v>
+        <f t="shared" si="0"/>
+        <v>-1.6388727850528961</v>
       </c>
       <c r="H19">
         <f t="shared" si="2"/>
-        <v>8.2219219164377869E-2</v>
+        <v>8.8204308284799776E-2</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="3"/>
-        <v>1.8227882134481159</v>
+        <v>1.6587739638245422</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="4"/>
-        <v>0.17895132135009995</v>
+        <v>1.99011787716461E-2</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" si="5"/>
-        <v>-3.4666251055461319</v>
+        <v>-3.2976467488774386</v>
       </c>
       <c r="P19">
         <f t="shared" si="6"/>
-        <v>10.253155451650068</v>
+        <v>1.1402535509506695</v>
       </c>
       <c r="Q19">
         <f t="shared" si="7"/>
-        <v>-18.622987701886899</v>
+        <v>-8.9412410357144552</v>
       </c>
       <c r="S19">
         <f t="shared" si="11"/>
-        <v>15.94341285664882</v>
+        <v>14.676979288456661</v>
       </c>
       <c r="T19">
         <f t="shared" si="12"/>
-        <v>11.900862331453652</v>
+        <v>11.281651509185053</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -6258,55 +6266,55 @@
         <v>0.4</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.02</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="6">
         <f t="shared" si="9"/>
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="6">
         <f t="shared" si="10"/>
-        <v>-8.2000000000000003E-2</v>
+        <v>-8.7999999999999995E-2</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
-        <v>-1.6680495250464624</v>
+        <f t="shared" si="0"/>
+        <v>-1.6614562139956417</v>
       </c>
       <c r="H20">
         <f t="shared" si="2"/>
-        <v>8.2389319696183932E-2</v>
+        <v>8.8362888137498083E-2</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="3"/>
-        <v>1.8178730789330095</v>
+        <v>1.6546400911872541</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="4"/>
-        <v>0.14982355388654711</v>
+        <v>-6.8161228083876146E-3</v>
       </c>
       <c r="K20" s="1">
         <f t="shared" si="5"/>
-        <v>-3.4859226039794722</v>
+        <v>-3.3160963051828958</v>
       </c>
       <c r="P20">
         <f t="shared" si="6"/>
-        <v>8.5842573093500114</v>
+        <v>-0.39053506956346823</v>
       </c>
       <c r="Q20">
         <f t="shared" si="7"/>
-        <v>-19.728652917277628</v>
+        <v>-9.9983227459061368</v>
       </c>
       <c r="S20">
         <f t="shared" si="11"/>
-        <v>16.688981423000566</v>
+        <v>15.307886205141376</v>
       </c>
       <c r="T20">
         <f t="shared" si="12"/>
-        <v>11.056652153907294</v>
+        <v>10.570817101916816</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -6318,55 +6326,55 @@
         <v>0.5</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.02</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="6">
         <f t="shared" si="9"/>
         <v>-0.01</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="6">
         <f t="shared" si="10"/>
-        <v>-8.2000000000000003E-2</v>
+        <v>-8.7999999999999995E-2</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
-        <v>-1.6921483273656603</v>
+        <f t="shared" si="0"/>
+        <v>-1.6839473083853811</v>
       </c>
       <c r="H21">
         <f t="shared" si="2"/>
-        <v>8.2607505712253546E-2</v>
+        <v>8.8566359301938111E-2</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" si="3"/>
-        <v>1.8115937511864044</v>
+        <v>1.6493493212280528</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="4"/>
-        <v>0.11944542382074408</v>
+        <v>-3.4597987157328314E-2</v>
       </c>
       <c r="K21" s="1">
         <f t="shared" si="5"/>
-        <v>-3.5037420785520648</v>
+        <v>-3.3332966296134341</v>
       </c>
       <c r="P21">
         <f t="shared" si="6"/>
-        <v>6.8437186670800241</v>
+        <v>-1.9823186437627369</v>
       </c>
       <c r="Q21">
         <f t="shared" si="7"/>
-        <v>-20.749633603427867</v>
+        <v>-10.983828742031761</v>
       </c>
       <c r="S21">
         <f t="shared" si="11"/>
-        <v>17.405386422699873</v>
+        <v>15.917835741992688</v>
       </c>
       <c r="T21">
-        <f t="shared" ref="T18:U81" si="13">ABS(Q21-Q20)*10</f>
-        <v>10.209806861502386</v>
+        <f t="shared" ref="T21:T56" si="13">ABS(Q21-Q20)*10</f>
+        <v>9.8550599612562451</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -6378,55 +6386,55 @@
         <v>0.6</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.02</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="6">
         <f t="shared" si="9"/>
         <v>-1.2E-2</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="6">
         <f t="shared" si="10"/>
-        <v>-8.2000000000000003E-2</v>
+        <v>-8.7999999999999995E-2</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
-        <v>-1.7161063374305987</v>
+        <f t="shared" si="0"/>
+        <v>-1.7063240407803972</v>
       </c>
       <c r="H22">
         <f t="shared" si="2"/>
-        <v>8.2873397420402645E-2</v>
+        <v>8.8814413244698062E-2</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" si="3"/>
-        <v>1.8039791363486051</v>
+        <v>1.6429192134584742</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="4"/>
-        <v>8.7872798918006367E-2</v>
+        <v>-6.3404827321922985E-2</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="5"/>
-        <v>-3.5200854737792038</v>
+        <v>-3.3492432542388713</v>
       </c>
       <c r="P22">
         <f t="shared" si="6"/>
-        <v>5.0347405120035118</v>
+        <v>-3.6328290063019577</v>
       </c>
       <c r="Q22">
         <f t="shared" si="7"/>
-        <v>-21.686041172857188</v>
+        <v>-11.897503030548677</v>
       </c>
       <c r="S22">
         <f t="shared" si="11"/>
-        <v>18.089781550765125</v>
+        <v>16.505103625392209</v>
       </c>
       <c r="T22">
         <f t="shared" si="13"/>
-        <v>9.3640756942932057</v>
+        <v>9.1367428851691557</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -6438,55 +6446,55 @@
         <v>0.7</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.02</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="6">
         <f t="shared" si="9"/>
         <v>-1.4E-2</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="6">
         <f t="shared" si="10"/>
-        <v>-8.2000000000000003E-2</v>
+        <v>-8.7999999999999995E-2</v>
       </c>
       <c r="G23">
-        <f t="shared" si="1"/>
-        <v>-1.7398975527962737</v>
+        <f t="shared" si="0"/>
+        <v>-1.7285650643908506</v>
       </c>
       <c r="H23">
         <f t="shared" si="2"/>
-        <v>8.318653737234169E-2</v>
+        <v>8.9106677639781848E-2</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" si="3"/>
-        <v>1.7950633025445348</v>
+        <v>1.6353705897972386</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" si="4"/>
-        <v>5.5165749748261161E-2</v>
+        <v>-9.3194474593611965E-2</v>
       </c>
       <c r="K23" s="1">
         <f t="shared" si="5"/>
-        <v>-3.5349608553408087</v>
+        <v>-3.3639356541880892</v>
       </c>
       <c r="P23">
         <f t="shared" si="6"/>
-        <v>3.1607646342502487</v>
+        <v>-5.3396500681531434</v>
       </c>
       <c r="Q23">
         <f t="shared" si="7"/>
-        <v>-22.538337754983871</v>
+        <v>-12.739315538557094</v>
       </c>
       <c r="S23">
         <f t="shared" si="11"/>
-        <v>18.739758777532632</v>
+        <v>17.068210618511856</v>
       </c>
       <c r="T23">
         <f t="shared" si="13"/>
-        <v>8.5229658212668369</v>
+        <v>8.4181250800841667</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -6498,55 +6506,55 @@
         <v>0.79999999999999993</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.02</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="6">
         <f t="shared" si="9"/>
         <v>-1.6E-2</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="6">
         <f t="shared" si="10"/>
-        <v>-8.2000000000000003E-2</v>
+        <v>-8.7999999999999995E-2</v>
       </c>
       <c r="G24">
-        <f t="shared" si="1"/>
-        <v>-1.7634970854572822</v>
+        <f t="shared" si="0"/>
+        <v>-1.7506498265873749</v>
       </c>
       <c r="H24">
         <f t="shared" si="2"/>
-        <v>8.3546394296821702E-2</v>
+        <v>8.9442719099991574E-2</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" si="3"/>
-        <v>1.7848848054765631</v>
+        <v>1.6267271827207985</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="4"/>
-        <v>2.1387720019280909E-2</v>
+        <v>-0.12392264386657637</v>
       </c>
       <c r="K24" s="1">
         <f t="shared" si="5"/>
-        <v>-3.5483818909338454</v>
+        <v>-3.3773770093081734</v>
       </c>
       <c r="P24">
         <f t="shared" si="6"/>
-        <v>1.2254260905122558</v>
+        <v>-7.100244479657583</v>
       </c>
       <c r="Q24">
         <f t="shared" si="7"/>
-        <v>-23.307306451159747</v>
+        <v>-13.509448457874498</v>
       </c>
       <c r="S24">
         <f t="shared" si="11"/>
-        <v>19.353385437379927</v>
+        <v>17.605944115044394</v>
       </c>
       <c r="T24">
         <f t="shared" si="13"/>
-        <v>7.6896869617587527</v>
+        <v>7.7013291931740468</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -6558,55 +6566,55 @@
         <v>0.89999999999999991</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.02</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="6">
         <f t="shared" si="9"/>
         <v>-1.8000000000000002E-2</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="6">
         <f t="shared" si="10"/>
-        <v>-8.2000000000000003E-2</v>
+        <v>-8.7999999999999995E-2</v>
       </c>
       <c r="G25">
-        <f t="shared" si="1"/>
-        <v>-1.7868812990916829</v>
+        <f t="shared" si="0"/>
+        <v>-1.7725586711151837</v>
       </c>
       <c r="H25">
         <f t="shared" si="2"/>
-        <v>8.3952367447261422E-2</v>
+        <v>8.9822046291542473E-2</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" si="3"/>
-        <v>1.7734859581580527</v>
+        <v>1.6170152459811065</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" si="4"/>
-        <v>-1.3395340933630262E-2</v>
+        <v>-0.15554342513407726</v>
       </c>
       <c r="K25" s="1">
         <f t="shared" si="5"/>
-        <v>-3.5603672572497356</v>
+        <v>-3.38957391709629</v>
       </c>
       <c r="P25">
         <f t="shared" si="6"/>
-        <v>-0.76749650063584585</v>
+        <v>-8.9119817911917174</v>
       </c>
       <c r="Q25">
         <f t="shared" si="7"/>
-        <v>-23.994017356978503</v>
+        <v>-14.208279797243819</v>
       </c>
       <c r="S25">
         <f t="shared" si="11"/>
-        <v>19.929225911481016</v>
+        <v>18.117373115341344</v>
       </c>
       <c r="T25">
         <f t="shared" si="13"/>
-        <v>6.867109058187566</v>
+        <v>6.988313393693204</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -6618,55 +6626,55 @@
         <v>0.99999999999999989</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.02</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="6">
         <f t="shared" si="9"/>
         <v>-2.0000000000000004E-2</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="6">
         <f t="shared" si="10"/>
-        <v>-8.2000000000000003E-2</v>
+        <v>-8.7999999999999995E-2</v>
       </c>
       <c r="G26">
-        <f t="shared" si="1"/>
-        <v>-1.8100279267585573</v>
+        <f t="shared" si="0"/>
+        <v>-1.7942729279355296</v>
       </c>
       <c r="H26">
         <f t="shared" si="2"/>
-        <v>8.440379138403678E-2</v>
+        <v>9.0244113381427807E-2</v>
       </c>
       <c r="I26" s="1">
         <f t="shared" si="3"/>
-        <v>1.7609120696675162</v>
+        <v>1.6062631384874162</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" si="4"/>
-        <v>-4.9115857091041049E-2</v>
+        <v>-0.18800978944811342</v>
       </c>
       <c r="K26" s="1">
         <f t="shared" si="5"/>
-        <v>-3.5709399964260733</v>
+        <v>-3.400536066422946</v>
       </c>
       <c r="P26">
         <f t="shared" si="6"/>
-        <v>-2.8141313184843493</v>
+        <v>-10.772167442520139</v>
       </c>
       <c r="Q26">
         <f t="shared" si="7"/>
-        <v>-24.599790689675274</v>
+        <v>-14.836364688053379</v>
       </c>
       <c r="S26">
         <f t="shared" si="11"/>
-        <v>20.466348178485035</v>
+        <v>18.601856513284218</v>
       </c>
       <c r="T26">
         <f t="shared" si="13"/>
-        <v>6.0577333269677069</v>
+        <v>6.2808489080956065</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
@@ -6678,55 +6686,55 @@
         <v>1.0999999999999999</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.02</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="6">
         <f t="shared" si="9"/>
         <v>-2.2000000000000006E-2</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="6">
         <f t="shared" si="10"/>
-        <v>-8.2000000000000003E-2</v>
+        <v>-8.7999999999999995E-2</v>
       </c>
       <c r="G27">
-        <f t="shared" si="1"/>
-        <v>-1.8329161680603694</v>
+        <f t="shared" si="0"/>
+        <v>-1.8157749899217608</v>
       </c>
       <c r="H27">
         <f t="shared" si="2"/>
-        <v>8.4899941107164506E-2</v>
+        <v>9.0708323763588533E-2</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" si="3"/>
-        <v>1.7472106764905713</v>
+        <v>1.5945008918643562</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" si="4"/>
-        <v>-8.570549156979812E-2</v>
+        <v>-0.22127409805740461</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" si="5"/>
-        <v>-3.5801268445509407</v>
+        <v>-3.410275881786117</v>
       </c>
       <c r="P27">
         <f t="shared" si="6"/>
-        <v>-4.9105629480434887</v>
+        <v>-12.678071934253213</v>
       </c>
       <c r="Q27">
         <f t="shared" si="7"/>
-        <v>-25.126158314257822</v>
+        <v>-15.394415001599782</v>
       </c>
       <c r="S27">
         <f t="shared" si="11"/>
-        <v>20.964316295591395</v>
+        <v>19.059044917330734</v>
       </c>
       <c r="T27">
         <f t="shared" si="13"/>
-        <v>5.2636762458254793</v>
+        <v>5.5805031354640278</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
@@ -6738,55 +6746,55 @@
         <v>1.2</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.02</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="6">
         <f t="shared" si="9"/>
         <v>-2.4000000000000007E-2</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="6">
         <f t="shared" si="10"/>
-        <v>-8.2000000000000003E-2</v>
+        <v>-8.7999999999999995E-2</v>
       </c>
       <c r="G28">
-        <f t="shared" si="1"/>
-        <v>-1.8555267653176089</v>
+        <f t="shared" si="0"/>
+        <v>-1.837048375945822</v>
       </c>
       <c r="H28">
         <f t="shared" si="2"/>
-        <v>8.5440037453175313E-2</v>
+        <v>9.121403400793103E-2</v>
       </c>
       <c r="I28" s="1">
         <f t="shared" si="3"/>
-        <v>1.7324307876047578</v>
+        <v>1.5817597716640042</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" si="4"/>
-        <v>-0.12309597771285108</v>
+        <v>-0.25528860428181788</v>
       </c>
       <c r="K28" s="1">
         <f t="shared" si="5"/>
-        <v>-3.5879575529223668</v>
+        <v>-3.418808147609826</v>
       </c>
       <c r="P28">
         <f t="shared" si="6"/>
-        <v>-7.052879997982811</v>
+        <v>-14.626959583133562</v>
       </c>
       <c r="Q28">
         <f t="shared" si="7"/>
-        <v>-25.574824854538321</v>
+        <v>-15.883277822981995</v>
       </c>
       <c r="S28">
         <f t="shared" si="11"/>
-        <v>21.423170499393223</v>
+        <v>19.488876488803495</v>
       </c>
       <c r="T28">
         <f t="shared" si="13"/>
-        <v>4.4866654028049879</v>
+        <v>4.8886282138221304</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
@@ -6798,55 +6806,55 @@
         <v>1.3</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.02</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="6">
         <f t="shared" si="9"/>
         <v>-2.6000000000000009E-2</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="6">
         <f t="shared" si="10"/>
-        <v>-8.2000000000000003E-2</v>
+        <v>-8.7999999999999995E-2</v>
       </c>
       <c r="G29">
-        <f t="shared" si="1"/>
-        <v>-1.8778420588136875</v>
+        <f t="shared" si="0"/>
+        <v>-1.8580777801920307</v>
       </c>
       <c r="H29">
         <f t="shared" si="2"/>
-        <v>8.6023252670426278E-2</v>
+        <v>9.1760557975635704E-2</v>
       </c>
       <c r="I29" s="1">
         <f t="shared" si="3"/>
-        <v>1.7166221612637809</v>
+        <v>1.5680718412991692</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" si="4"/>
-        <v>-0.16121989754990662</v>
+        <v>-0.29000593889286153</v>
       </c>
       <c r="K29" s="1">
         <f t="shared" si="5"/>
-        <v>-3.5944642200774686</v>
+        <v>-3.4261496214911999</v>
       </c>
       <c r="P29">
         <f t="shared" si="6"/>
-        <v>-9.2372197031411698</v>
+        <v>-16.61611633228982</v>
       </c>
       <c r="Q29">
         <f t="shared" si="7"/>
-        <v>-25.947629421222075</v>
+        <v>-16.303913291790224</v>
       </c>
       <c r="S29">
         <f t="shared" si="11"/>
-        <v>21.843397051583587</v>
+        <v>19.891567491562583</v>
       </c>
       <c r="T29">
         <f t="shared" si="13"/>
-        <v>3.728045666837545</v>
+        <v>4.2063546880822855</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
@@ -6858,55 +6866,55 @@
         <v>1.4000000000000001</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.02</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="6">
         <f t="shared" si="9"/>
         <v>-2.8000000000000011E-2</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="6">
         <f t="shared" si="10"/>
-        <v>-8.2000000000000003E-2</v>
+        <v>-8.7999999999999995E-2</v>
       </c>
       <c r="G30">
-        <f t="shared" si="1"/>
-        <v>-1.899846021635236</v>
+        <f t="shared" si="0"/>
+        <v>-1.8788491078186731</v>
       </c>
       <c r="H30">
         <f t="shared" si="2"/>
-        <v>8.6648716089737884E-2</v>
+        <v>9.2347171044921558E-2</v>
       </c>
       <c r="I30" s="1">
         <f t="shared" si="3"/>
-        <v>1.6998346277781715</v>
+        <v>1.5534695365668738</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" si="4"/>
-        <v>-0.20001139385706446</v>
+        <v>-0.32537957125179928</v>
       </c>
       <c r="K30" s="1">
         <f t="shared" si="5"/>
-        <v>-3.5996806494134077</v>
+        <v>-3.4323186443855471</v>
       </c>
       <c r="P30">
         <f t="shared" si="6"/>
-        <v>-11.459808722538634</v>
+        <v>-18.642876172504351</v>
       </c>
       <c r="Q30">
         <f t="shared" si="7"/>
-        <v>-26.246508806299602</v>
+        <v>-16.657372267355925</v>
       </c>
       <c r="S30">
         <f t="shared" si="11"/>
-        <v>22.225890193974642</v>
+        <v>20.26759840214531</v>
       </c>
       <c r="T30">
         <f t="shared" si="13"/>
-        <v>2.9887938507752665</v>
+        <v>3.5345897556570094</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -6918,55 +6926,55 @@
         <v>1.5000000000000002</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.02</v>
       </c>
       <c r="D31" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6">
         <f t="shared" si="9"/>
         <v>-3.0000000000000013E-2</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="6">
         <f t="shared" si="10"/>
-        <v>-0.08</v>
+        <v>-8.7999999999999995E-2</v>
       </c>
       <c r="G31">
-        <f t="shared" si="1"/>
-        <v>-1.929566997065469</v>
+        <f t="shared" si="0"/>
+        <v>-1.8993494973463476</v>
       </c>
       <c r="H31">
         <f t="shared" si="2"/>
-        <v>8.5440037453175313E-2</v>
+        <v>9.2973114393355677E-2</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" si="3"/>
-        <v>1.7324307876047578</v>
+        <v>1.5379852572381141</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="4"/>
-        <v>-0.1971362094607112</v>
+        <v>-0.36136424010823354</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="5"/>
-        <v>-3.661997784670227</v>
+        <v>-3.4373347545844615</v>
       </c>
       <c r="P31">
         <f t="shared" si="6"/>
-        <v>-11.295072791305723</v>
+        <v>-20.704645825153889</v>
       </c>
       <c r="Q31">
         <f t="shared" si="7"/>
-        <v>-29.817017647861263</v>
+        <v>-16.944774211326234</v>
       </c>
       <c r="S31">
         <f t="shared" si="11"/>
-        <v>1.6473593123291153</v>
+        <v>20.617696526495379</v>
       </c>
       <c r="T31">
         <f t="shared" si="13"/>
-        <v>35.705088415616615</v>
+        <v>2.8740194397030905</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
@@ -6978,54 +6986,55 @@
         <v>1.6000000000000003</v>
       </c>
       <c r="C32" s="1">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>-0.02</v>
       </c>
       <c r="D32" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="E32" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="E32" s="6">
         <f t="shared" si="9"/>
-        <v>-3.0000000000000013E-2</v>
-      </c>
-      <c r="F32" s="1">
+        <v>-3.2000000000000015E-2</v>
+      </c>
+      <c r="F32" s="6">
         <f t="shared" si="10"/>
-        <v>-7.0000000000000007E-2</v>
+        <v>-8.5999999999999993E-2</v>
       </c>
       <c r="G32">
-        <f t="shared" si="1"/>
-        <v>-1.9756881130799802</v>
+        <f>-ATAN(E32/F32)-PI()/2</f>
+        <v>-1.9270159821910471</v>
       </c>
       <c r="H32">
         <f t="shared" si="2"/>
-        <v>7.6157731058639086E-2</v>
+        <v>9.1760557975635704E-2</v>
       </c>
       <c r="I32" s="1">
         <f t="shared" si="3"/>
-        <v>2.0116878544269046</v>
+        <v>1.5680718412991692</v>
       </c>
       <c r="J32" s="1">
         <f t="shared" si="4"/>
-        <v>3.5999741346924408E-2</v>
+        <v>-0.35894414089187787</v>
       </c>
       <c r="K32" s="1">
         <f t="shared" si="5"/>
-        <v>-3.9873759675068845</v>
+        <v>-3.4950878234902163</v>
       </c>
       <c r="P32">
         <f t="shared" si="6"/>
-        <v>2.0626332427413741</v>
+        <v>-20.565984354053793</v>
       </c>
       <c r="Q32">
         <f t="shared" si="7"/>
-        <v>-48.459814270037754</v>
+        <v>-20.253781313554242</v>
       </c>
       <c r="S32">
         <f t="shared" si="11"/>
-        <v>133.57706034047095</v>
+        <v>1.3866147110009663</v>
       </c>
       <c r="T32">
         <f t="shared" si="13"/>
-        <v>186.4279662217649</v>
+        <v>33.090071022280085</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
@@ -7040,51 +7049,51 @@
         <v>0.02</v>
       </c>
       <c r="D33" s="1">
-        <v>0</v>
-      </c>
-      <c r="E33" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E33" s="6">
         <f t="shared" si="9"/>
-        <v>-2.8000000000000011E-2</v>
-      </c>
-      <c r="F33" s="1">
+        <v>-3.0000000000000013E-2</v>
+      </c>
+      <c r="F33" s="6">
         <f t="shared" si="10"/>
-        <v>-7.0000000000000007E-2</v>
+        <v>-7.5999999999999984E-2</v>
       </c>
       <c r="G33">
-        <f t="shared" si="1"/>
-        <v>-1.9513027039072615</v>
+        <f t="shared" si="0"/>
+        <v>-1.9467572806662023</v>
       </c>
       <c r="H33">
         <f t="shared" si="2"/>
-        <v>7.5392307299883068E-2</v>
+        <v>8.1706792863261976E-2</v>
       </c>
       <c r="I33" s="1">
         <f t="shared" si="3"/>
-        <v>2.0379101680384748</v>
+        <v>1.8377020190786562</v>
       </c>
       <c r="J33" s="1">
         <f t="shared" si="4"/>
-        <v>8.6607464131213341E-2</v>
+        <v>-0.10905526158754619</v>
       </c>
       <c r="K33" s="1">
         <f t="shared" si="5"/>
-        <v>-3.9892128719457363</v>
+        <v>-3.7844592997448583</v>
       </c>
       <c r="P33">
         <f t="shared" si="6"/>
-        <v>4.9622421690491851</v>
+        <v>-6.2484062226615622</v>
       </c>
       <c r="Q33">
         <f t="shared" si="7"/>
-        <v>-48.565061141752807</v>
+        <v>-36.833545614415328</v>
       </c>
       <c r="S33">
         <f t="shared" si="11"/>
-        <v>28.996089263078112</v>
+        <v>143.1757813139223</v>
       </c>
       <c r="T33">
         <f t="shared" si="13"/>
-        <v>1.052468717150532</v>
+        <v>165.79764300861086</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
@@ -7101,49 +7110,49 @@
       <c r="D34" s="1">
         <v>0</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="6">
         <f t="shared" si="9"/>
-        <v>-1.8000000000000009E-2</v>
-      </c>
-      <c r="F34" s="1">
+        <v>-2.0000000000000011E-2</v>
+      </c>
+      <c r="F34" s="6">
         <f t="shared" si="10"/>
-        <v>-7.0000000000000007E-2</v>
+        <v>-7.5999999999999984E-2</v>
       </c>
       <c r="G34">
-        <f t="shared" si="1"/>
-        <v>-1.8224862985530834</v>
+        <f t="shared" si="0"/>
+        <v>-1.8281200417659855</v>
       </c>
       <c r="H34">
         <f t="shared" si="2"/>
-        <v>7.2277243998370613E-2</v>
+        <v>7.8587530817553986E-2</v>
       </c>
       <c r="I34" s="1">
         <f t="shared" si="3"/>
-        <v>2.1522913427723664</v>
+        <v>1.9323690311255466</v>
       </c>
       <c r="J34" s="1">
         <f t="shared" si="4"/>
-        <v>0.32980504421928303</v>
+        <v>0.10424898935956106</v>
       </c>
       <c r="K34" s="1">
         <f t="shared" si="5"/>
-        <v>-3.9747776413254501</v>
+        <v>-3.7604890728915321</v>
       </c>
       <c r="P34">
         <f t="shared" si="6"/>
-        <v>18.896437095890406</v>
+        <v>5.9730271088070763</v>
       </c>
       <c r="Q34">
         <f t="shared" si="7"/>
-        <v>-47.73798335091243</v>
+        <v>-35.460152781748604</v>
       </c>
       <c r="S34">
         <f t="shared" si="11"/>
-        <v>139.34194926841221</v>
+        <v>122.21433331468639</v>
       </c>
       <c r="T34">
         <f t="shared" si="13"/>
-        <v>8.2707779084037725</v>
+        <v>13.73392832666724</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
@@ -7155,54 +7164,54 @@
         <v>1.9000000000000006</v>
       </c>
       <c r="C35" s="1">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="6">
         <f t="shared" si="9"/>
-        <v>1.9999999999999948E-3</v>
-      </c>
-      <c r="F35" s="1">
+        <v>-4.0000000000000105E-3</v>
+      </c>
+      <c r="F35" s="6">
         <f t="shared" si="10"/>
-        <v>-7.0000000000000007E-2</v>
+        <v>-7.5999999999999984E-2</v>
       </c>
       <c r="G35">
-        <f t="shared" si="1"/>
-        <v>-1.5422326689561365</v>
+        <f t="shared" si="0"/>
+        <v>-1.6233793884058385</v>
       </c>
       <c r="H35">
         <f t="shared" si="2"/>
-        <v>7.0028565600046389E-2</v>
+        <v>7.6105190361761776E-2</v>
       </c>
       <c r="I35" s="1">
         <f t="shared" si="3"/>
-        <v>2.2446872385797461</v>
+        <v>2.013467277483822</v>
       </c>
       <c r="J35" s="1">
         <f t="shared" si="4"/>
-        <v>0.70245456962360953</v>
+        <v>0.39008788907798353</v>
       </c>
       <c r="K35" s="1">
         <f t="shared" si="5"/>
-        <v>-3.7869199075358826</v>
+        <v>-3.6368466658896605</v>
       </c>
       <c r="P35">
         <f t="shared" si="6"/>
-        <v>40.247682139111468</v>
+        <v>22.350389683335859</v>
       </c>
       <c r="Q35">
         <f t="shared" si="7"/>
-        <v>-36.974528055878011</v>
+        <v>-28.375964691702563</v>
       </c>
       <c r="S35">
         <f t="shared" si="11"/>
-        <v>213.51245043221064</v>
+        <v>163.7736257452878</v>
       </c>
       <c r="T35">
         <f t="shared" si="13"/>
-        <v>107.63455295034419</v>
+        <v>70.84188090046041</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
@@ -7214,54 +7223,54 @@
         <v>2.0000000000000004</v>
       </c>
       <c r="C36" s="1">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="6">
         <f t="shared" si="9"/>
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="F36" s="1">
+        <v>1.199999999999999E-2</v>
+      </c>
+      <c r="F36" s="6">
         <f t="shared" si="10"/>
-        <v>-7.0000000000000007E-2</v>
+        <v>-7.5999999999999984E-2</v>
       </c>
       <c r="G36">
-        <f t="shared" si="1"/>
-        <v>-1.2662854435927842</v>
+        <f t="shared" si="0"/>
+        <v>-1.4141944498128813</v>
       </c>
       <c r="H36">
         <f t="shared" si="2"/>
-        <v>7.337574531137657E-2</v>
+        <v>7.6941536246685358E-2</v>
       </c>
       <c r="I36" s="1">
         <f t="shared" si="3"/>
-        <v>2.1103973664105675</v>
+        <v>1.985483147141252</v>
       </c>
       <c r="J36" s="1">
         <f t="shared" si="4"/>
-        <v>0.84411192281778336</v>
+        <v>0.57128869732837062</v>
       </c>
       <c r="K36" s="1">
         <f t="shared" si="5"/>
-        <v>-3.3766828100033517</v>
+        <v>-3.3996775969541333</v>
       </c>
       <c r="P36">
         <f t="shared" si="6"/>
-        <v>48.364050614131678</v>
+        <v>32.732431240442345</v>
       </c>
       <c r="Q36">
         <f t="shared" si="7"/>
-        <v>-13.469673767567286</v>
+        <v>-14.787178010649569</v>
       </c>
       <c r="S36">
         <f t="shared" si="11"/>
-        <v>81.163684750202094</v>
+        <v>103.82041557106487</v>
       </c>
       <c r="T36">
         <f t="shared" si="13"/>
-        <v>235.04854288310725</v>
+        <v>135.88786681052994</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
@@ -7278,49 +7287,49 @@
       <c r="D37" s="1">
         <v>0</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="6">
         <f t="shared" si="9"/>
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="F37" s="1">
+        <v>2.1999999999999992E-2</v>
+      </c>
+      <c r="F37" s="6">
         <f t="shared" si="10"/>
-        <v>-7.0000000000000007E-2</v>
+        <v>-7.5999999999999984E-2</v>
       </c>
       <c r="G37">
-        <f t="shared" si="1"/>
-        <v>-1.1420182993488801</v>
+        <f t="shared" si="0"/>
+        <v>-1.2890244595215443</v>
       </c>
       <c r="H37">
         <f t="shared" si="2"/>
-        <v>7.6967525619575428E-2</v>
+        <v>7.9120161779409906E-2</v>
       </c>
       <c r="I37" s="1">
         <f t="shared" si="3"/>
-        <v>1.9846248791590493</v>
+        <v>1.9156865246084651</v>
       </c>
       <c r="J37" s="1">
         <f t="shared" si="4"/>
-        <v>0.84260657981016918</v>
+        <v>0.62666206508692079</v>
       </c>
       <c r="K37" s="1">
         <f t="shared" si="5"/>
-        <v>-3.1266431785079294</v>
+        <v>-3.2047109841300094</v>
       </c>
       <c r="P37">
         <f t="shared" si="6"/>
-        <v>48.277800813075856</v>
+        <v>35.90509151043306</v>
       </c>
       <c r="Q37">
         <f t="shared" si="7"/>
-        <v>0.85654182812677959</v>
+        <v>-3.6164139498661143</v>
       </c>
       <c r="S37">
         <f t="shared" si="11"/>
-        <v>0.86249801055821251</v>
+        <v>31.726602699907147</v>
       </c>
       <c r="T37">
         <f t="shared" si="13"/>
-        <v>143.26215595694066</v>
+        <v>111.70764060783455</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
@@ -7332,54 +7341,54 @@
         <v>2.2000000000000006</v>
       </c>
       <c r="C38" s="1">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="6">
         <f t="shared" si="9"/>
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="F38" s="1">
+        <v>3.1999999999999994E-2</v>
+      </c>
+      <c r="F38" s="6">
         <f t="shared" si="10"/>
-        <v>-7.0000000000000007E-2</v>
+        <v>-7.5999999999999984E-2</v>
       </c>
       <c r="G38">
-        <f t="shared" si="1"/>
-        <v>-1.1186424645091209</v>
+        <f t="shared" si="0"/>
+        <v>-1.1722738811284763</v>
       </c>
       <c r="H38">
         <f t="shared" si="2"/>
-        <v>7.7820305833374875E-2</v>
+        <v>8.2462112512353192E-2</v>
       </c>
       <c r="I38" s="1">
         <f t="shared" si="3"/>
-        <v>1.9568207949134429</v>
+        <v>1.8157749899217615</v>
       </c>
       <c r="J38" s="1">
         <f t="shared" si="4"/>
-        <v>0.83817833040432199</v>
+        <v>0.64350110879328515</v>
       </c>
       <c r="K38" s="1">
         <f t="shared" si="5"/>
-        <v>-3.0754632594225635</v>
+        <v>-2.9880488710502378</v>
       </c>
       <c r="P38">
         <f t="shared" si="6"/>
-        <v>48.024080811489497</v>
+        <v>36.869897645844063</v>
       </c>
       <c r="Q38">
         <f t="shared" si="7"/>
-        <v>3.7889351875392947</v>
+        <v>8.797410709991027</v>
       </c>
       <c r="S38">
         <f t="shared" si="11"/>
-        <v>2.5372000158635899</v>
+        <v>9.6480613541100269</v>
       </c>
       <c r="T38">
         <f t="shared" si="13"/>
-        <v>29.323933594125151</v>
+        <v>124.13824659857141</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
@@ -7391,54 +7400,54 @@
         <v>2.3000000000000007</v>
       </c>
       <c r="C39" s="1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D39" s="1">
         <v>-0.1</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="6">
         <f t="shared" si="9"/>
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="F39" s="1">
+        <v>3.3999999999999996E-2</v>
+      </c>
+      <c r="F39" s="6">
         <f t="shared" si="10"/>
-        <v>-8.0000000000000016E-2</v>
+        <v>-8.5999999999999993E-2</v>
       </c>
       <c r="G39">
-        <f t="shared" si="1"/>
-        <v>-1.16892567935444</v>
+        <f t="shared" si="0"/>
+        <v>-1.1943059923483736</v>
       </c>
       <c r="H39">
         <f t="shared" si="2"/>
-        <v>8.6925255248402944E-2</v>
+        <v>9.2477024173575131E-2</v>
       </c>
       <c r="I39" s="1">
         <f t="shared" si="3"/>
-        <v>1.6924649263058913</v>
+        <v>1.5502492372360133</v>
       </c>
       <c r="J39" s="1">
         <f t="shared" si="4"/>
-        <v>0.52353924695145126</v>
+        <v>0.35594324488763962</v>
       </c>
       <c r="K39" s="1">
         <f t="shared" si="5"/>
-        <v>-2.8613906056603313</v>
+        <v>-2.7445552295843871</v>
       </c>
       <c r="P39">
         <f t="shared" si="6"/>
-        <v>29.996589259775511</v>
+        <v>20.394045678253267</v>
       </c>
       <c r="Q39">
         <f t="shared" si="7"/>
-        <v>16.054394757280591</v>
+        <v>22.748568704255916</v>
       </c>
       <c r="S39">
         <f t="shared" si="11"/>
-        <v>180.27491551713985</v>
+        <v>164.75851967590796</v>
       </c>
       <c r="T39">
         <f t="shared" si="13"/>
-        <v>122.65459569741296</v>
+        <v>139.51157994264889</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
@@ -7450,55 +7459,55 @@
         <v>2.4000000000000008</v>
       </c>
       <c r="C40" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.02</v>
       </c>
       <c r="D40" s="1">
         <v>-0.02</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="6">
         <f t="shared" si="9"/>
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="F40" s="1">
+        <v>3.1999999999999994E-2</v>
+      </c>
+      <c r="F40" s="6">
         <f t="shared" si="10"/>
-        <v>-8.2000000000000017E-2</v>
+        <v>-8.7999999999999995E-2</v>
       </c>
       <c r="G40">
-        <f t="shared" si="1"/>
-        <v>-1.1987285679367763</v>
+        <f t="shared" si="0"/>
+        <v>-1.2220253232109897</v>
       </c>
       <c r="H40">
         <f t="shared" si="2"/>
-        <v>8.8022724338661554E-2</v>
+        <v>9.3637599285756989E-2</v>
       </c>
       <c r="I40" s="1">
         <f t="shared" si="3"/>
-        <v>1.6635188596767463</v>
+        <v>1.521650980692377</v>
       </c>
       <c r="J40" s="1">
         <f t="shared" si="4"/>
-        <v>0.46479029173997</v>
+        <v>0.29962565748138736</v>
       </c>
       <c r="K40" s="1">
         <f t="shared" si="5"/>
-        <v>-2.8622474276135224</v>
+        <v>-2.7436763039033667</v>
       </c>
       <c r="P40">
         <f t="shared" si="6"/>
-        <v>26.630522075354531</v>
+        <v>17.167285607515897</v>
       </c>
       <c r="Q40">
         <f t="shared" si="7"/>
-        <v>16.005302475568584</v>
+        <v>22.79892743628406</v>
       </c>
       <c r="S40">
         <f t="shared" si="11"/>
-        <v>33.660671844209809</v>
+        <v>32.267600707373703</v>
       </c>
       <c r="T40">
         <f t="shared" si="13"/>
-        <v>0.49092281712006525</v>
+        <v>0.50358732028144004</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
@@ -7510,55 +7519,55 @@
         <v>2.5000000000000009</v>
       </c>
       <c r="C41" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.02</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="6">
         <f t="shared" si="9"/>
-        <v>0.03</v>
-      </c>
-      <c r="F41" s="1">
+        <v>2.9999999999999992E-2</v>
+      </c>
+      <c r="F41" s="6">
         <f t="shared" si="10"/>
-        <v>-8.2000000000000017E-2</v>
+        <v>-8.7999999999999995E-2</v>
       </c>
       <c r="G41">
-        <f t="shared" si="1"/>
-        <v>-1.220068378546693</v>
+        <f t="shared" si="0"/>
+        <v>-1.2422431562434455</v>
       </c>
       <c r="H41">
         <f t="shared" si="2"/>
-        <v>8.731551981177231E-2</v>
+        <v>9.2973114393355663E-2</v>
       </c>
       <c r="I41" s="1">
         <f t="shared" si="3"/>
-        <v>1.6821174687720204</v>
+        <v>1.5379852572381147</v>
       </c>
       <c r="J41" s="1">
         <f t="shared" si="4"/>
-        <v>0.46204909022532736</v>
+        <v>0.29574210099466924</v>
       </c>
       <c r="K41" s="1">
         <f t="shared" si="5"/>
-        <v>-2.9021858473187132</v>
+        <v>-2.7802284134815602</v>
       </c>
       <c r="P41">
         <f t="shared" si="6"/>
-        <v>26.47346279777064</v>
+        <v>16.944774211326294</v>
       </c>
       <c r="Q41">
         <f t="shared" si="7"/>
-        <v>13.716999586039009</v>
+        <v>20.704645825153847</v>
       </c>
       <c r="S41">
         <f t="shared" si="11"/>
-        <v>1.5705927758389038</v>
+        <v>2.2251139618960281</v>
       </c>
       <c r="T41">
         <f t="shared" si="13"/>
-        <v>22.883028895295752</v>
+        <v>20.942816111302136</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
@@ -7570,55 +7579,55 @@
         <v>2.600000000000001</v>
       </c>
       <c r="C42" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.02</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="6">
         <f t="shared" si="9"/>
-        <v>2.7999999999999997E-2</v>
-      </c>
-      <c r="F42" s="1">
+        <v>2.799999999999999E-2</v>
+      </c>
+      <c r="F42" s="6">
         <f t="shared" si="10"/>
-        <v>-8.2000000000000017E-2</v>
+        <v>-8.7999999999999995E-2</v>
       </c>
       <c r="G42">
-        <f t="shared" si="1"/>
-        <v>-1.2417466319545571</v>
+        <f t="shared" si="0"/>
+        <v>-1.2627435457711202</v>
       </c>
       <c r="H42">
         <f t="shared" si="2"/>
-        <v>8.6648716089737898E-2</v>
+        <v>9.2347171044921558E-2</v>
       </c>
       <c r="I42" s="1">
         <f t="shared" si="3"/>
-        <v>1.6998346277781713</v>
+        <v>1.5534695365668738</v>
       </c>
       <c r="J42" s="1">
         <f t="shared" si="4"/>
-        <v>0.45808799582361415</v>
+        <v>0.29072599079575356</v>
       </c>
       <c r="K42" s="1">
         <f t="shared" si="5"/>
-        <v>-2.9415812597327284</v>
+        <v>-2.8162130823379941</v>
       </c>
       <c r="P42">
         <f t="shared" si="6"/>
-        <v>26.24650880629957</v>
+        <v>16.657372267355896</v>
       </c>
       <c r="Q42">
         <f t="shared" si="7"/>
-        <v>11.459808722538639</v>
+        <v>18.642876172504344</v>
       </c>
       <c r="S42">
         <f t="shared" si="11"/>
-        <v>2.2695399147107054</v>
+        <v>2.8740194397039787</v>
       </c>
       <c r="T42">
         <f t="shared" si="13"/>
-        <v>22.571908635003695</v>
+        <v>20.617696526495024</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
@@ -7630,55 +7639,55 @@
         <v>2.7000000000000011</v>
       </c>
       <c r="C43" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.02</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="6">
         <f t="shared" si="9"/>
-        <v>2.5999999999999995E-2</v>
-      </c>
-      <c r="F43" s="1">
+        <v>2.5999999999999988E-2</v>
+      </c>
+      <c r="F43" s="6">
         <f t="shared" si="10"/>
-        <v>-8.2000000000000017E-2</v>
+        <v>-8.7999999999999995E-2</v>
       </c>
       <c r="G43">
-        <f t="shared" si="1"/>
-        <v>-1.2637505947761059</v>
+        <f t="shared" si="0"/>
+        <v>-1.2835148733977624</v>
       </c>
       <c r="H43">
         <f t="shared" si="2"/>
-        <v>8.6023252670426278E-2</v>
+        <v>9.176055797563569E-2</v>
       </c>
       <c r="I43" s="1">
         <f t="shared" si="3"/>
-        <v>1.7166221612637809</v>
+        <v>1.5680718412991694</v>
       </c>
       <c r="J43" s="1">
         <f t="shared" si="4"/>
-        <v>0.45287156648767501</v>
+        <v>0.28455696790140705</v>
       </c>
       <c r="K43" s="1">
         <f t="shared" si="5"/>
-        <v>-2.9803727560398867</v>
+        <v>-2.851586714696932</v>
       </c>
       <c r="P43">
         <f t="shared" si="6"/>
-        <v>25.947629421222029</v>
+        <v>16.303913291790263</v>
       </c>
       <c r="Q43">
         <f t="shared" si="7"/>
-        <v>9.2372197031411645</v>
+        <v>16.616116332289806</v>
       </c>
       <c r="S43">
         <f t="shared" si="11"/>
-        <v>2.9887938507754086</v>
+        <v>3.5345897556563344</v>
       </c>
       <c r="T43">
         <f t="shared" si="13"/>
-        <v>22.225890193974749</v>
+        <v>20.267598402145381</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
@@ -7690,55 +7699,55 @@
         <v>2.8000000000000012</v>
       </c>
       <c r="C44" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.02</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="6">
         <f t="shared" si="9"/>
-        <v>2.3999999999999994E-2</v>
-      </c>
-      <c r="F44" s="1">
+        <v>2.3999999999999987E-2</v>
+      </c>
+      <c r="F44" s="6">
         <f t="shared" si="10"/>
-        <v>-8.2000000000000017E-2</v>
+        <v>-8.7999999999999995E-2</v>
       </c>
       <c r="G44">
-        <f t="shared" si="1"/>
-        <v>-1.2860658882721845</v>
+        <f t="shared" si="0"/>
+        <v>-1.3045442776439713</v>
       </c>
       <c r="H44">
         <f t="shared" si="2"/>
-        <v>8.5440037453175327E-2</v>
+        <v>9.121403400793103E-2</v>
       </c>
       <c r="I44" s="1">
         <f t="shared" si="3"/>
-        <v>1.7324307876047571</v>
+        <v>1.5817597716640042</v>
       </c>
       <c r="J44" s="1">
         <f t="shared" si="4"/>
-        <v>0.44636489933257262</v>
+        <v>0.27721549402003287</v>
       </c>
       <c r="K44" s="1">
         <f t="shared" si="5"/>
-        <v>-3.0184966758769418</v>
+        <v>-2.8863040493079755</v>
       </c>
       <c r="P44">
         <f t="shared" si="6"/>
-        <v>25.574824854538267</v>
+        <v>15.883277822981995</v>
       </c>
       <c r="Q44">
         <f t="shared" si="7"/>
-        <v>7.0528799979828136</v>
+        <v>14.626959583133555</v>
       </c>
       <c r="S44">
         <f t="shared" si="11"/>
-        <v>3.7280456668376161</v>
+        <v>4.2063546880826763</v>
       </c>
       <c r="T44">
         <f t="shared" si="13"/>
-        <v>21.843397051583509</v>
+        <v>19.891567491562512</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
@@ -7750,55 +7759,55 @@
         <v>2.9000000000000012</v>
       </c>
       <c r="C45" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.02</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="6">
         <f t="shared" si="9"/>
-        <v>2.1999999999999992E-2</v>
-      </c>
-      <c r="F45" s="1">
+        <v>2.1999999999999985E-2</v>
+      </c>
+      <c r="F45" s="6">
         <f t="shared" si="10"/>
-        <v>-8.2000000000000017E-2</v>
+        <v>-8.7999999999999995E-2</v>
       </c>
       <c r="G45">
-        <f t="shared" si="1"/>
-        <v>-1.3086764855294239</v>
+        <f t="shared" si="0"/>
+        <v>-1.3258176636680326</v>
       </c>
       <c r="H45">
         <f t="shared" si="2"/>
-        <v>8.4899941107164506E-2</v>
+        <v>9.0708323763588533E-2</v>
       </c>
       <c r="I45" s="1">
         <f t="shared" si="3"/>
-        <v>1.7472106764905713</v>
+        <v>1.5945008918643562</v>
       </c>
       <c r="J45" s="1">
         <f t="shared" si="4"/>
-        <v>0.43853419096114732</v>
+        <v>0.26868322819632362</v>
       </c>
       <c r="K45" s="1">
         <f t="shared" si="5"/>
-        <v>-3.055887162019995</v>
+        <v>-2.9203185555323889</v>
       </c>
       <c r="P45">
         <f t="shared" si="6"/>
-        <v>25.126158314257836</v>
+        <v>15.394415001599743</v>
       </c>
       <c r="Q45">
         <f t="shared" si="7"/>
-        <v>4.9105629480435198</v>
+        <v>12.678071934253182</v>
       </c>
       <c r="S45">
         <f t="shared" si="11"/>
-        <v>4.4866654028043129</v>
+        <v>4.8886282138225212</v>
       </c>
       <c r="T45">
         <f t="shared" si="13"/>
-        <v>21.423170499392938</v>
+        <v>19.488876488803726</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
@@ -7810,55 +7819,55 @@
         <v>3.0000000000000013</v>
       </c>
       <c r="C46" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.02</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="6">
         <f t="shared" si="9"/>
-        <v>1.999999999999999E-2</v>
-      </c>
-      <c r="F46" s="1">
+        <v>1.9999999999999983E-2</v>
+      </c>
+      <c r="F46" s="6">
         <f t="shared" si="10"/>
-        <v>-8.2000000000000017E-2</v>
+        <v>-8.7999999999999995E-2</v>
       </c>
       <c r="G46">
-        <f t="shared" si="1"/>
-        <v>-1.3315647268312361</v>
+        <f t="shared" si="0"/>
+        <v>-1.3473197256542637</v>
       </c>
       <c r="H46">
         <f t="shared" si="2"/>
-        <v>8.440379138403678E-2</v>
+        <v>9.0244113381427807E-2</v>
       </c>
       <c r="I46" s="1">
         <f t="shared" si="3"/>
-        <v>1.7609120696675162</v>
+        <v>1.6062631384874162</v>
       </c>
       <c r="J46" s="1">
         <f t="shared" si="4"/>
-        <v>0.42934734283628018</v>
+        <v>0.25894341283315248</v>
       </c>
       <c r="K46" s="1">
         <f t="shared" si="5"/>
-        <v>-3.0924767964987523</v>
+        <v>-2.9535828641416799</v>
       </c>
       <c r="P46">
         <f t="shared" si="6"/>
-        <v>24.599790689675274</v>
+        <v>14.836364688053356</v>
       </c>
       <c r="Q46">
         <f t="shared" si="7"/>
-        <v>2.8141313184843568</v>
+        <v>10.772167442520129</v>
       </c>
       <c r="S46">
         <f t="shared" si="11"/>
-        <v>5.2636762458256214</v>
+        <v>5.5805031354638679</v>
       </c>
       <c r="T46">
         <f t="shared" si="13"/>
-        <v>20.96431629559163</v>
+        <v>19.059044917330539</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
@@ -7870,55 +7879,55 @@
         <v>3.1000000000000014</v>
       </c>
       <c r="C47" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.02</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="6">
         <f t="shared" si="9"/>
-        <v>1.7999999999999988E-2</v>
-      </c>
-      <c r="F47" s="1">
+        <v>1.7999999999999981E-2</v>
+      </c>
+      <c r="F47" s="6">
         <f t="shared" si="10"/>
-        <v>-8.2000000000000017E-2</v>
+        <v>-8.7999999999999995E-2</v>
       </c>
       <c r="G47">
-        <f t="shared" si="1"/>
-        <v>-1.3547113544981104</v>
+        <f t="shared" si="0"/>
+        <v>-1.3690339824746096</v>
       </c>
       <c r="H47">
         <f t="shared" si="2"/>
-        <v>8.3952367447261436E-2</v>
+        <v>8.9822046291542473E-2</v>
       </c>
       <c r="I47" s="1">
         <f t="shared" si="3"/>
-        <v>1.7734859581580524</v>
+        <v>1.6170152459811065</v>
       </c>
       <c r="J47" s="1">
         <f t="shared" si="4"/>
-        <v>0.41877460365994201</v>
+        <v>0.24798126350649685</v>
       </c>
       <c r="K47" s="1">
         <f t="shared" si="5"/>
-        <v>-3.1281973126561629</v>
+        <v>-2.9860492284557161</v>
       </c>
       <c r="P47">
         <f t="shared" si="6"/>
-        <v>23.994017356978475</v>
+        <v>14.20827979724381</v>
       </c>
       <c r="Q47">
         <f t="shared" si="7"/>
-        <v>0.76749650063587183</v>
+        <v>8.911981791191721</v>
       </c>
       <c r="S47">
         <f t="shared" si="11"/>
-        <v>6.0577333269679912</v>
+        <v>6.2808489080954644</v>
       </c>
       <c r="T47">
         <f t="shared" si="13"/>
-        <v>20.46634817848485</v>
+        <v>18.601856513284076</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
@@ -7930,55 +7939,55 @@
         <v>3.2000000000000015</v>
       </c>
       <c r="C48" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.02</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="6">
         <f t="shared" si="9"/>
-        <v>1.5999999999999986E-2</v>
-      </c>
-      <c r="F48" s="1">
+        <v>1.599999999999998E-2</v>
+      </c>
+      <c r="F48" s="6">
         <f t="shared" si="10"/>
-        <v>-8.2000000000000017E-2</v>
+        <v>-8.7999999999999995E-2</v>
       </c>
       <c r="G48">
-        <f t="shared" si="1"/>
-        <v>-1.3780955681325111</v>
+        <f t="shared" si="0"/>
+        <v>-1.3909428270024184</v>
       </c>
       <c r="H48">
         <f t="shared" si="2"/>
-        <v>8.3546394296821702E-2</v>
+        <v>8.9442719099991574E-2</v>
       </c>
       <c r="I48" s="1">
         <f t="shared" si="3"/>
-        <v>1.7848848054765631</v>
+        <v>1.6267271827207985</v>
       </c>
       <c r="J48" s="1">
         <f t="shared" si="4"/>
-        <v>0.40678923734405203</v>
+        <v>0.23578435571838008</v>
       </c>
       <c r="K48" s="1">
         <f t="shared" si="5"/>
-        <v>-3.1629803736090745</v>
+        <v>-3.0176700097232168</v>
       </c>
       <c r="P48">
         <f t="shared" si="6"/>
-        <v>23.307306451159718</v>
+        <v>13.509448457874477</v>
       </c>
       <c r="Q48">
         <f t="shared" si="7"/>
-        <v>-1.2254260905122862</v>
+        <v>7.1002444796575901</v>
       </c>
       <c r="S48">
         <f t="shared" si="11"/>
-        <v>6.867109058187566</v>
+        <v>6.9883133936933284</v>
       </c>
       <c r="T48">
         <f t="shared" si="13"/>
-        <v>19.929225911481581</v>
+        <v>18.117373115341309</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
@@ -7990,55 +7999,55 @@
         <v>3.3000000000000016</v>
       </c>
       <c r="C49" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.02</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="6">
         <f t="shared" si="9"/>
-        <v>1.3999999999999986E-2</v>
-      </c>
-      <c r="F49" s="1">
+        <v>1.3999999999999979E-2</v>
+      </c>
+      <c r="F49" s="6">
         <f t="shared" si="10"/>
-        <v>-8.2000000000000017E-2</v>
+        <v>-8.7999999999999995E-2</v>
       </c>
       <c r="G49">
-        <f t="shared" si="1"/>
-        <v>-1.4016951007935197</v>
+        <f t="shared" si="0"/>
+        <v>-1.4130275891989428</v>
       </c>
       <c r="H49">
         <f t="shared" si="2"/>
-        <v>8.3186537372341704E-2</v>
+        <v>8.9106677639781848E-2</v>
       </c>
       <c r="I49" s="1">
         <f t="shared" si="3"/>
-        <v>1.7950633025445346</v>
+        <v>1.6353705897972386</v>
       </c>
       <c r="J49" s="1">
         <f t="shared" si="4"/>
-        <v>0.39336820175101495</v>
+        <v>0.22234300059829581</v>
       </c>
       <c r="K49" s="1">
         <f t="shared" si="5"/>
-        <v>-3.1967584033380545</v>
+        <v>-3.0483981789961812</v>
       </c>
       <c r="P49">
         <f t="shared" si="6"/>
-        <v>22.538337754983836</v>
+        <v>12.739315538557088</v>
       </c>
       <c r="Q49">
         <f t="shared" si="7"/>
-        <v>-3.1607646342502846</v>
+        <v>5.3396500681531336</v>
       </c>
       <c r="S49">
         <f t="shared" si="11"/>
-        <v>7.6896869617588237</v>
+        <v>7.701329193173887</v>
       </c>
       <c r="T49">
         <f t="shared" si="13"/>
-        <v>19.353385437379984</v>
+        <v>17.605944115044565</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
@@ -8050,55 +8059,55 @@
         <v>3.4000000000000017</v>
       </c>
       <c r="C50" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.02</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="6">
         <f t="shared" si="9"/>
-        <v>1.1999999999999986E-2</v>
-      </c>
-      <c r="F50" s="1">
+        <v>1.1999999999999979E-2</v>
+      </c>
+      <c r="F50" s="6">
         <f t="shared" si="10"/>
-        <v>-8.2000000000000017E-2</v>
+        <v>-8.7999999999999995E-2</v>
       </c>
       <c r="G50">
-        <f t="shared" si="1"/>
-        <v>-1.4254863161591946</v>
+        <f t="shared" si="0"/>
+        <v>-1.4352686128093961</v>
       </c>
       <c r="H50">
         <f t="shared" si="2"/>
-        <v>8.2873397420402659E-2</v>
+        <v>8.8814413244698062E-2</v>
       </c>
       <c r="I50" s="1">
         <f t="shared" si="3"/>
-        <v>1.8039791363486046</v>
+        <v>1.6429192134584742</v>
       </c>
       <c r="J50" s="1">
         <f t="shared" si="4"/>
-        <v>0.37849282018941</v>
+        <v>0.20765060064907814</v>
       </c>
       <c r="K50" s="1">
         <f t="shared" si="5"/>
-        <v>-3.2294654525077995</v>
+        <v>-3.0781878262678704</v>
       </c>
       <c r="P50">
         <f t="shared" si="6"/>
-        <v>21.686041172857148</v>
+        <v>11.897503030548691</v>
       </c>
       <c r="Q50">
         <f t="shared" si="7"/>
-        <v>-5.0347405120035091</v>
+        <v>3.6328290063019324</v>
       </c>
       <c r="S50">
         <f t="shared" si="11"/>
-        <v>8.5229658212668724</v>
+        <v>8.4181250800839713</v>
       </c>
       <c r="T50">
         <f t="shared" si="13"/>
-        <v>18.739758777532245</v>
+        <v>17.068210618512012</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
@@ -8110,55 +8119,55 @@
         <v>3.5000000000000018</v>
       </c>
       <c r="C51" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.02</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="6">
         <f t="shared" si="9"/>
-        <v>9.9999999999999863E-3</v>
-      </c>
-      <c r="F51" s="1">
+        <v>9.9999999999999794E-3</v>
+      </c>
+      <c r="F51" s="6">
         <f t="shared" si="10"/>
-        <v>-8.2000000000000017E-2</v>
+        <v>-8.7999999999999995E-2</v>
       </c>
       <c r="G51">
-        <f t="shared" si="1"/>
-        <v>-1.449444326224133</v>
+        <f t="shared" si="0"/>
+        <v>-1.4576453452044122</v>
       </c>
       <c r="H51">
         <f t="shared" si="2"/>
-        <v>8.2607505712253546E-2</v>
+        <v>8.8566359301938111E-2</v>
       </c>
       <c r="I51" s="1">
         <f t="shared" si="3"/>
-        <v>1.8115937511864044</v>
+        <v>1.6493493212280528</v>
       </c>
       <c r="J51" s="1">
         <f t="shared" si="4"/>
-        <v>0.36214942496227143</v>
+        <v>0.19170397602364053</v>
       </c>
       <c r="K51" s="1">
         <f t="shared" si="5"/>
-        <v>-3.2610380774105376</v>
+        <v>-3.106994666432465</v>
       </c>
       <c r="P51">
         <f t="shared" si="6"/>
-        <v>20.749633603427856</v>
+        <v>10.983828742031729</v>
       </c>
       <c r="Q51">
         <f t="shared" si="7"/>
-        <v>-6.8437186670800543</v>
+        <v>1.9823186437627385</v>
       </c>
       <c r="S51">
         <f t="shared" si="11"/>
-        <v>9.3640756942929215</v>
+        <v>9.1367428851696175</v>
       </c>
       <c r="T51">
         <f t="shared" si="13"/>
-        <v>18.089781550765451</v>
+        <v>16.505103625391939</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
@@ -8170,55 +8179,55 @@
         <v>3.6000000000000019</v>
       </c>
       <c r="C52" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.02</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="6">
         <f t="shared" si="9"/>
-        <v>7.9999999999999863E-3</v>
-      </c>
-      <c r="F52" s="1">
+        <v>7.9999999999999793E-3</v>
+      </c>
+      <c r="F52" s="6">
         <f t="shared" si="10"/>
-        <v>-8.2000000000000017E-2</v>
+        <v>-8.7999999999999995E-2</v>
       </c>
       <c r="G52">
-        <f t="shared" si="1"/>
-        <v>-1.4735431285433309</v>
+        <f t="shared" si="0"/>
+        <v>-1.4801364395941516</v>
       </c>
       <c r="H52">
         <f t="shared" si="2"/>
-        <v>8.2389319696183932E-2</v>
+        <v>8.8362888137498083E-2</v>
       </c>
       <c r="I52" s="1">
         <f t="shared" si="3"/>
-        <v>1.8178730789330095</v>
+        <v>1.6546400911872541</v>
       </c>
       <c r="J52" s="1">
         <f t="shared" si="4"/>
-        <v>0.34432995038967862</v>
+        <v>0.17450365159310244</v>
       </c>
       <c r="K52" s="1">
         <f t="shared" si="5"/>
-        <v>-3.2914162074763404</v>
+        <v>-3.1347765307814059</v>
       </c>
       <c r="P52">
         <f t="shared" si="6"/>
-        <v>19.7286529172776</v>
+        <v>9.998322745906135</v>
       </c>
       <c r="Q52">
         <f t="shared" si="7"/>
-        <v>-8.5842573093500221</v>
+        <v>0.39053506956344108</v>
       </c>
       <c r="S52">
         <f t="shared" si="11"/>
-        <v>10.209806861502564</v>
+        <v>9.8550599612559431</v>
       </c>
       <c r="T52">
         <f t="shared" si="13"/>
-        <v>17.405386422699678</v>
+        <v>15.917835741992974</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
@@ -8230,55 +8239,55 @@
         <v>3.700000000000002</v>
       </c>
       <c r="C53" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.02</v>
       </c>
       <c r="D53" s="1">
         <v>0</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="6">
         <f t="shared" si="9"/>
-        <v>5.9999999999999862E-3</v>
-      </c>
-      <c r="F53" s="1">
+        <v>5.9999999999999793E-3</v>
+      </c>
+      <c r="F53" s="6">
         <f t="shared" si="10"/>
-        <v>-8.2000000000000017E-2</v>
+        <v>-8.7999999999999995E-2</v>
       </c>
       <c r="G53">
-        <f t="shared" si="1"/>
-        <v>-1.4977557614917774</v>
+        <f t="shared" si="0"/>
+        <v>-1.5027198685368972</v>
       </c>
       <c r="H53">
         <f t="shared" si="2"/>
-        <v>8.2219219164377869E-2</v>
+        <v>8.8204308284799776E-2</v>
       </c>
       <c r="I53" s="1">
         <f t="shared" si="3"/>
-        <v>1.8227882134481159</v>
+        <v>1.6587739638245422</v>
       </c>
       <c r="J53" s="1">
         <f t="shared" si="4"/>
-        <v>0.32503245195633856</v>
+        <v>0.15605409528764502</v>
       </c>
       <c r="K53" s="1">
         <f t="shared" si="5"/>
-        <v>-3.3205439749398931</v>
+        <v>-3.1614938323614394</v>
       </c>
       <c r="P53">
         <f t="shared" si="6"/>
-        <v>18.622987701886899</v>
+        <v>8.9412410357144498</v>
       </c>
       <c r="Q53">
         <f t="shared" si="7"/>
-        <v>-10.253155451650088</v>
+        <v>-1.1402535509506606</v>
       </c>
       <c r="S53">
         <f t="shared" si="11"/>
-        <v>11.05665215390701</v>
+        <v>10.570817101916852</v>
       </c>
       <c r="T53">
         <f t="shared" si="13"/>
-        <v>16.688981423000655</v>
+        <v>15.307886205141017</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
@@ -8290,55 +8299,55 @@
         <v>3.800000000000002</v>
       </c>
       <c r="C54" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.02</v>
       </c>
       <c r="D54" s="1">
         <v>0</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="6">
         <f t="shared" si="9"/>
-        <v>3.9999999999999862E-3</v>
-      </c>
-      <c r="F54" s="1">
+        <v>3.9999999999999793E-3</v>
+      </c>
+      <c r="F54" s="6">
         <f t="shared" si="10"/>
-        <v>-8.2000000000000017E-2</v>
+        <v>-8.7999999999999995E-2</v>
       </c>
       <c r="G54">
-        <f t="shared" si="1"/>
-        <v>-1.5220544754849652</v>
+        <f t="shared" si="0"/>
+        <v>-1.5253730473733198</v>
       </c>
       <c r="H54">
         <f t="shared" si="2"/>
-        <v>8.2097503007095174E-2</v>
+        <v>8.8090862182180957E-2</v>
       </c>
       <c r="I54" s="1">
         <f t="shared" si="3"/>
-        <v>1.8263160042902598</v>
+        <v>1.661736946271178</v>
       </c>
       <c r="J54" s="1">
         <f t="shared" si="4"/>
-        <v>0.30426152880529456</v>
+        <v>0.13636389889785816</v>
       </c>
       <c r="K54" s="1">
         <f t="shared" si="5"/>
-        <v>-3.348370479775225</v>
+        <v>-3.1871099936444978</v>
       </c>
       <c r="P54">
         <f t="shared" si="6"/>
-        <v>17.432901468741502</v>
+        <v>7.8130758847959312</v>
       </c>
       <c r="Q54">
         <f t="shared" si="7"/>
-        <v>-11.84749673731497</v>
+        <v>-2.6079514797963554</v>
       </c>
       <c r="S54">
         <f t="shared" si="11"/>
-        <v>11.900862331453972</v>
+        <v>11.281651509185187</v>
       </c>
       <c r="T54">
         <f t="shared" si="13"/>
-        <v>15.94341285664882</v>
+        <v>14.676979288456948</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
@@ -8350,55 +8359,55 @@
         <v>3.9000000000000021</v>
       </c>
       <c r="C55" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.02</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="6">
         <f t="shared" si="9"/>
-        <v>1.9999999999999862E-3</v>
-      </c>
-      <c r="F55" s="1">
+        <v>1.9999999999999792E-3</v>
+      </c>
+      <c r="F55" s="6">
         <f t="shared" si="10"/>
-        <v>-8.2000000000000017E-2</v>
+        <v>-8.7999999999999995E-2</v>
       </c>
       <c r="G55">
-        <f t="shared" si="1"/>
-        <v>-1.5464109176221781</v>
+        <f t="shared" si="0"/>
+        <v>-1.5480729659532557</v>
       </c>
       <c r="H55">
         <f t="shared" si="2"/>
-        <v>8.2024386617639528E-2</v>
+        <v>8.802272433866154E-2</v>
       </c>
       <c r="I55" s="1">
         <f t="shared" si="3"/>
-        <v>1.8284395464733931</v>
+        <v>1.6635188596767467</v>
       </c>
       <c r="J55" s="1">
         <f t="shared" si="4"/>
-        <v>0.28202862885121505</v>
+        <v>0.11544589372349101</v>
       </c>
       <c r="K55" s="1">
         <f t="shared" si="5"/>
-        <v>-3.3748504640955712</v>
+        <v>-3.2115918256300025</v>
       </c>
       <c r="P55">
         <f t="shared" si="6"/>
-        <v>16.159050135036146</v>
+        <v>6.6145624724718752</v>
       </c>
       <c r="Q55">
         <f t="shared" si="7"/>
-        <v>-13.364688080443386</v>
+        <v>-4.0106571273141469</v>
       </c>
       <c r="S55">
         <f t="shared" si="11"/>
-        <v>12.738513337053554</v>
+        <v>11.985134123240559</v>
       </c>
       <c r="T55">
         <f t="shared" si="13"/>
-        <v>15.171913431284167</v>
+        <v>14.027056475177915</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
@@ -8410,55 +8419,55 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="C56" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.02</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56" s="6">
         <f t="shared" si="9"/>
-        <v>-1.3877787807814457E-17</v>
-      </c>
-      <c r="F56" s="1">
+        <v>-2.0816681711721685E-17</v>
+      </c>
+      <c r="F56" s="6">
         <f t="shared" si="10"/>
-        <v>-8.2000000000000017E-2</v>
+        <v>-8.7999999999999995E-2</v>
       </c>
       <c r="G56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1.5707963267948968</v>
       </c>
       <c r="H56">
         <f t="shared" si="2"/>
-        <v>8.2000000000000017E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="I56" s="1">
         <f t="shared" si="3"/>
-        <v>1.8291485461259209</v>
+        <v>1.6641135219135843</v>
       </c>
       <c r="J56" s="1">
         <f t="shared" si="4"/>
-        <v>0.25835221933102415</v>
+        <v>9.3317195118687524E-2</v>
       </c>
       <c r="K56" s="1">
         <f t="shared" si="5"/>
-        <v>-3.3999448729208179</v>
+        <v>-3.2349098487084813</v>
       </c>
       <c r="P56">
         <f t="shared" si="6"/>
-        <v>14.802491795505844</v>
+        <v>5.346681436299602</v>
       </c>
       <c r="Q56">
         <f t="shared" si="7"/>
-        <v>-14.802491795505887</v>
+        <v>-5.3466814362996615</v>
       </c>
       <c r="S56">
         <f t="shared" si="11"/>
-        <v>13.565583395303022</v>
+        <v>12.678810361722732</v>
       </c>
       <c r="T56">
         <f t="shared" si="13"/>
-        <v>14.378037150625005</v>
+        <v>13.360243089855146</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
